--- a/natmiOut/OldD7/LR-pairs_lrc2p/Vegfc-Kdr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Vegfc-Kdr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.36094259176819</v>
+        <v>3.401172666666667</v>
       </c>
       <c r="H2">
-        <v>3.36094259176819</v>
+        <v>10.203518</v>
       </c>
       <c r="I2">
-        <v>0.5122625606218942</v>
+        <v>0.5101677883321656</v>
       </c>
       <c r="J2">
-        <v>0.5122625606218942</v>
+        <v>0.5101677883321655</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>149.459823346726</v>
+        <v>161.7750676666667</v>
       </c>
       <c r="N2">
-        <v>149.459823346726</v>
+        <v>485.325203</v>
       </c>
       <c r="O2">
-        <v>0.9832534961815145</v>
+        <v>0.9790864123038654</v>
       </c>
       <c r="P2">
-        <v>0.9832534961815145</v>
+        <v>0.9790864123038654</v>
       </c>
       <c r="Q2">
-        <v>502.3258860441612</v>
+        <v>550.2249382960172</v>
       </c>
       <c r="R2">
-        <v>502.3258860441612</v>
+        <v>4952.024444664155</v>
       </c>
       <c r="S2">
-        <v>0.5036839536943725</v>
+        <v>0.4994983495511378</v>
       </c>
       <c r="T2">
-        <v>0.5036839536943725</v>
+        <v>0.4994983495511377</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.36094259176819</v>
+        <v>3.401172666666667</v>
       </c>
       <c r="H3">
-        <v>3.36094259176819</v>
+        <v>10.203518</v>
       </c>
       <c r="I3">
-        <v>0.5122625606218942</v>
+        <v>0.5101677883321656</v>
       </c>
       <c r="J3">
-        <v>0.5122625606218942</v>
+        <v>0.5101677883321655</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.626353034851524</v>
+        <v>0.67894</v>
       </c>
       <c r="N3">
-        <v>0.626353034851524</v>
+        <v>2.03682</v>
       </c>
       <c r="O3">
-        <v>0.004120597747081131</v>
+        <v>0.004109044356199978</v>
       </c>
       <c r="P3">
-        <v>0.004120597747081131</v>
+        <v>0.004109044356199979</v>
       </c>
       <c r="Q3">
-        <v>2.105136592315753</v>
+        <v>2.309192170306667</v>
       </c>
       <c r="R3">
-        <v>2.105136592315753</v>
+        <v>20.78272953276</v>
       </c>
       <c r="S3">
-        <v>0.002110827953212588</v>
+        <v>0.00209630207136131</v>
       </c>
       <c r="T3">
-        <v>0.002110827953212588</v>
+        <v>0.00209630207136131</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.36094259176819</v>
+        <v>3.401172666666667</v>
       </c>
       <c r="H4">
-        <v>3.36094259176819</v>
+        <v>10.203518</v>
       </c>
       <c r="I4">
-        <v>0.5122625606218942</v>
+        <v>0.5101677883321656</v>
       </c>
       <c r="J4">
-        <v>0.5122625606218942</v>
+        <v>0.5101677883321655</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.46760260914225</v>
+        <v>1.763201333333333</v>
       </c>
       <c r="N4">
-        <v>1.46760260914225</v>
+        <v>5.289604</v>
       </c>
       <c r="O4">
-        <v>0.009654938458589045</v>
+        <v>0.01067115280816804</v>
       </c>
       <c r="P4">
-        <v>0.009654938458589045</v>
+        <v>0.01067115280816804</v>
       </c>
       <c r="Q4">
-        <v>4.932528116856312</v>
+        <v>5.996952180763556</v>
       </c>
       <c r="R4">
-        <v>4.932528116856312</v>
+        <v>53.972569626872</v>
       </c>
       <c r="S4">
-        <v>0.004945863497443629</v>
+        <v>0.005444078427097668</v>
       </c>
       <c r="T4">
-        <v>0.004945863497443629</v>
+        <v>0.005444078427097667</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.36094259176819</v>
+        <v>3.401172666666667</v>
       </c>
       <c r="H5">
-        <v>3.36094259176819</v>
+        <v>10.203518</v>
       </c>
       <c r="I5">
-        <v>0.5122625606218942</v>
+        <v>0.5101677883321656</v>
       </c>
       <c r="J5">
-        <v>0.5122625606218942</v>
+        <v>0.5101677883321655</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.451603067067319</v>
+        <v>1.013424</v>
       </c>
       <c r="N5">
-        <v>0.451603067067319</v>
+        <v>3.040272</v>
       </c>
       <c r="O5">
-        <v>0.002970967612815416</v>
+        <v>0.006133390531766587</v>
       </c>
       <c r="P5">
-        <v>0.002970967612815416</v>
+        <v>0.006133390531766588</v>
       </c>
       <c r="Q5">
-        <v>1.517811982679699</v>
+        <v>3.446830008544</v>
       </c>
       <c r="R5">
-        <v>1.517811982679699</v>
+        <v>31.021470076896</v>
       </c>
       <c r="S5">
-        <v>0.001521915476865542</v>
+        <v>0.003129058282568805</v>
       </c>
       <c r="T5">
-        <v>0.001521915476865542</v>
+        <v>0.003129058282568804</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.53711574538192</v>
+        <v>2.579868</v>
       </c>
       <c r="H6">
-        <v>2.53711574538192</v>
+        <v>7.739604</v>
       </c>
       <c r="I6">
-        <v>0.3866978899034729</v>
+        <v>0.3869740471126509</v>
       </c>
       <c r="J6">
-        <v>0.3866978899034729</v>
+        <v>0.3869740471126508</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>149.459823346726</v>
+        <v>161.7750676666667</v>
       </c>
       <c r="N6">
-        <v>149.459823346726</v>
+        <v>485.325203</v>
       </c>
       <c r="O6">
-        <v>0.9832534961815145</v>
+        <v>0.9790864123038654</v>
       </c>
       <c r="P6">
-        <v>0.9832534961815145</v>
+        <v>0.9790864123038654</v>
       </c>
       <c r="Q6">
-        <v>379.1968711149789</v>
+        <v>417.358320271068</v>
       </c>
       <c r="R6">
-        <v>379.1968711149789</v>
+        <v>3756.224882439612</v>
       </c>
       <c r="S6">
-        <v>0.3802220522136041</v>
+        <v>0.3788810314422323</v>
       </c>
       <c r="T6">
-        <v>0.3802220522136041</v>
+        <v>0.3788810314422323</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.53711574538192</v>
+        <v>2.579868</v>
       </c>
       <c r="H7">
-        <v>2.53711574538192</v>
+        <v>7.739604</v>
       </c>
       <c r="I7">
-        <v>0.3866978899034729</v>
+        <v>0.3869740471126509</v>
       </c>
       <c r="J7">
-        <v>0.3866978899034729</v>
+        <v>0.3869740471126508</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.626353034851524</v>
+        <v>0.67894</v>
       </c>
       <c r="N7">
-        <v>0.626353034851524</v>
+        <v>2.03682</v>
       </c>
       <c r="O7">
-        <v>0.004120597747081131</v>
+        <v>0.004109044356199978</v>
       </c>
       <c r="P7">
-        <v>0.004120597747081131</v>
+        <v>0.004109044356199979</v>
       </c>
       <c r="Q7">
-        <v>1.589130146889552</v>
+        <v>1.75157557992</v>
       </c>
       <c r="R7">
-        <v>1.589130146889552</v>
+        <v>15.76418021928</v>
       </c>
       <c r="S7">
-        <v>0.001593426453937277</v>
+        <v>0.001590093524284103</v>
       </c>
       <c r="T7">
-        <v>0.001593426453937277</v>
+        <v>0.001590093524284103</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.53711574538192</v>
+        <v>2.579868</v>
       </c>
       <c r="H8">
-        <v>2.53711574538192</v>
+        <v>7.739604</v>
       </c>
       <c r="I8">
-        <v>0.3866978899034729</v>
+        <v>0.3869740471126509</v>
       </c>
       <c r="J8">
-        <v>0.3866978899034729</v>
+        <v>0.3869740471126508</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.46760260914225</v>
+        <v>1.763201333333333</v>
       </c>
       <c r="N8">
-        <v>1.46760260914225</v>
+        <v>5.289604</v>
       </c>
       <c r="O8">
-        <v>0.009654938458589045</v>
+        <v>0.01067115280816804</v>
       </c>
       <c r="P8">
-        <v>0.009654938458589045</v>
+        <v>0.01067115280816804</v>
       </c>
       <c r="Q8">
-        <v>3.723477687618391</v>
+        <v>4.548826697423999</v>
       </c>
       <c r="R8">
-        <v>3.723477687618391</v>
+        <v>40.939440276816</v>
       </c>
       <c r="S8">
-        <v>0.003733544329084273</v>
+        <v>0.004129459189534316</v>
       </c>
       <c r="T8">
-        <v>0.003733544329084273</v>
+        <v>0.004129459189534316</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.53711574538192</v>
+        <v>2.579868</v>
       </c>
       <c r="H9">
-        <v>2.53711574538192</v>
+        <v>7.739604</v>
       </c>
       <c r="I9">
-        <v>0.3866978899034729</v>
+        <v>0.3869740471126509</v>
       </c>
       <c r="J9">
-        <v>0.3866978899034729</v>
+        <v>0.3869740471126508</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.451603067067319</v>
+        <v>1.013424</v>
       </c>
       <c r="N9">
-        <v>0.451603067067319</v>
+        <v>3.040272</v>
       </c>
       <c r="O9">
-        <v>0.002970967612815416</v>
+        <v>0.006133390531766587</v>
       </c>
       <c r="P9">
-        <v>0.002970967612815416</v>
+        <v>0.006133390531766588</v>
       </c>
       <c r="Q9">
-        <v>1.145769252119262</v>
+        <v>2.614500148032</v>
       </c>
       <c r="R9">
-        <v>1.145769252119262</v>
+        <v>23.530501332288</v>
       </c>
       <c r="S9">
-        <v>0.001148866906847279</v>
+        <v>0.00237346295660013</v>
       </c>
       <c r="T9">
-        <v>0.001148866906847279</v>
+        <v>0.00237346295660013</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.662918103696858</v>
+        <v>0.6857320000000001</v>
       </c>
       <c r="H10">
-        <v>0.662918103696858</v>
+        <v>2.057196</v>
       </c>
       <c r="I10">
-        <v>0.1010395494746329</v>
+        <v>0.1028581645551836</v>
       </c>
       <c r="J10">
-        <v>0.1010395494746329</v>
+        <v>0.1028581645551836</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>149.459823346726</v>
+        <v>161.7750676666667</v>
       </c>
       <c r="N10">
-        <v>149.459823346726</v>
+        <v>485.325203</v>
       </c>
       <c r="O10">
-        <v>0.9832534961815145</v>
+        <v>0.9790864123038654</v>
       </c>
       <c r="P10">
-        <v>0.9832534961815145</v>
+        <v>0.9790864123038654</v>
       </c>
       <c r="Q10">
-        <v>99.07962267187899</v>
+        <v>110.9343407011987</v>
       </c>
       <c r="R10">
-        <v>99.07962267187899</v>
+        <v>998.4090663107881</v>
       </c>
       <c r="S10">
-        <v>0.09934749027353788</v>
+        <v>0.1007070313104953</v>
       </c>
       <c r="T10">
-        <v>0.09934749027353788</v>
+        <v>0.1007070313104953</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.662918103696858</v>
+        <v>0.6857320000000001</v>
       </c>
       <c r="H11">
-        <v>0.662918103696858</v>
+        <v>2.057196</v>
       </c>
       <c r="I11">
-        <v>0.1010395494746329</v>
+        <v>0.1028581645551836</v>
       </c>
       <c r="J11">
-        <v>0.1010395494746329</v>
+        <v>0.1028581645551836</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.626353034851524</v>
+        <v>0.67894</v>
       </c>
       <c r="N11">
-        <v>0.626353034851524</v>
+        <v>2.03682</v>
       </c>
       <c r="O11">
-        <v>0.004120597747081131</v>
+        <v>0.004109044356199978</v>
       </c>
       <c r="P11">
-        <v>0.004120597747081131</v>
+        <v>0.004109044356199979</v>
       </c>
       <c r="Q11">
-        <v>0.4152207661085443</v>
+        <v>0.4655708840800001</v>
       </c>
       <c r="R11">
-        <v>0.4152207661085443</v>
+        <v>4.190137956720001</v>
       </c>
       <c r="S11">
-        <v>0.0004163433399312647</v>
+        <v>0.0004226487605545658</v>
       </c>
       <c r="T11">
-        <v>0.0004163433399312647</v>
+        <v>0.0004226487605545658</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.662918103696858</v>
+        <v>0.6857320000000001</v>
       </c>
       <c r="H12">
-        <v>0.662918103696858</v>
+        <v>2.057196</v>
       </c>
       <c r="I12">
-        <v>0.1010395494746329</v>
+        <v>0.1028581645551836</v>
       </c>
       <c r="J12">
-        <v>0.1010395494746329</v>
+        <v>0.1028581645551836</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.46760260914225</v>
+        <v>1.763201333333333</v>
       </c>
       <c r="N12">
-        <v>1.46760260914225</v>
+        <v>5.289604</v>
       </c>
       <c r="O12">
-        <v>0.009654938458589045</v>
+        <v>0.01067115280816804</v>
       </c>
       <c r="P12">
-        <v>0.009654938458589045</v>
+        <v>0.01067115280816804</v>
       </c>
       <c r="Q12">
-        <v>0.9729003386331415</v>
+        <v>1.209083576709334</v>
       </c>
       <c r="R12">
-        <v>0.9729003386331415</v>
+        <v>10.881752190384</v>
       </c>
       <c r="S12">
-        <v>0.0009755306320611436</v>
+        <v>0.001097615191536058</v>
       </c>
       <c r="T12">
-        <v>0.0009755306320611436</v>
+        <v>0.001097615191536058</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.662918103696858</v>
+        <v>0.6857320000000001</v>
       </c>
       <c r="H13">
-        <v>0.662918103696858</v>
+        <v>2.057196</v>
       </c>
       <c r="I13">
-        <v>0.1010395494746329</v>
+        <v>0.1028581645551836</v>
       </c>
       <c r="J13">
-        <v>0.1010395494746329</v>
+        <v>0.1028581645551836</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.451603067067319</v>
+        <v>1.013424</v>
       </c>
       <c r="N13">
-        <v>0.451603067067319</v>
+        <v>3.040272</v>
       </c>
       <c r="O13">
-        <v>0.002970967612815416</v>
+        <v>0.006133390531766587</v>
       </c>
       <c r="P13">
-        <v>0.002970967612815416</v>
+        <v>0.006133390531766588</v>
       </c>
       <c r="Q13">
-        <v>0.2993758488439521</v>
+        <v>0.694937266368</v>
       </c>
       <c r="R13">
-        <v>0.2993758488439521</v>
+        <v>6.254435397312</v>
       </c>
       <c r="S13">
-        <v>0.0003001852291025952</v>
+        <v>0.0006308692925976526</v>
       </c>
       <c r="T13">
-        <v>0.0003001852291025952</v>
+        <v>0.0006308692925976525</v>
       </c>
     </row>
   </sheetData>
